--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,121 +40,124 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
+    <t>new</t>
   </si>
   <si>
     <t>worth</t>
@@ -163,10 +166,7 @@
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>much</t>
   </si>
   <si>
     <t>true</t>
@@ -175,19 +175,22 @@
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -559,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -670,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9807692307692307</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.7894736842105263</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -888,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8939393939393939</v>
+        <v>0.8125</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9">
-        <v>0.6933333333333334</v>
-      </c>
-      <c r="L9">
-        <v>52</v>
-      </c>
-      <c r="M9">
-        <v>52</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.6923076923076923</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,16 +1044,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,16 +1094,16 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.55</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,49 +1123,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L13">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>14</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L13">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>13</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.4736842105263158</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.375</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1273,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.631578947368421</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.3636363636363636</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.5625</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <v>0.25</v>
+      </c>
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
       <c r="M17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.574468085106383</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2413479052823315</v>
+        <v>0.2349726775956284</v>
       </c>
       <c r="L18">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M18">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.2203389830508475</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5652173913043478</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>0.1549295774647887</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>60</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>0.1639344262295082</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20">
-        <v>10</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1538,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>0.1263157894736842</v>
+      </c>
+      <c r="L21">
         <v>12</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21">
-        <v>0.1267605633802817</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
       <c r="M21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,13 +1573,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.1263157894736842</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,13 +1623,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1638,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.1058823529411765</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="L23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1662,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>76</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1670,13 +1673,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4102564102564102</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1688,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.02560240963855422</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>647</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1720,13 +1723,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1738,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>0.02560240963855422</v>
+      </c>
+      <c r="L25">
         <v>17</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="L25">
-        <v>14</v>
-      </c>
       <c r="M25">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1762,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>602</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1770,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.141025641025641</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1788,19 +1791,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.02037037037037037</v>
+        <v>0.01664532650448143</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1812,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>529</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,16 +1844,16 @@
         <v>288</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.01664532650448143</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1862,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>768</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.01440092165898618</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1888,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1711</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
